--- a/data/trans_bre/P51_N_R2-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P51_N_R2-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,72</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,44</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,59</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,32</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>33,95%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>115,97%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-7,79%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-28,72%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>15,16%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>-2,88%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>8,28%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.340986926987775</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.646750745583598</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.01192318378618745</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-1.480203560884488</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>1.226405944825472</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.02370207392095244</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.2857826243902656</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3395474366037226</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.126127302383361</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.002286030338918552</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>-0.2765724057273942</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.1515581089719266</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>-0.004636601572061578</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.07255946256234354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,25; 3,68</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,48; 5,09</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-4,99; 2,08</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-7,58; 1,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 4,31</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-2,76; 1,92</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 2,69</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-40,32; 143,02</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>6,97; 347,78</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-58,54; 52,91</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-73,01; 34,92</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-17,01; 68,12</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>-41,71; 48,28</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-41,97; 105,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.25324624828003</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.3170270105052152</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-3.862429050290518</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-6.782717229423171</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-1.601181944957799</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-2.461371509967222</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-2.210325305736721</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.4031809580485792</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.008501799078416389</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.5169041479076397</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>-0.6987124821842409</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1701125867145369</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>-0.3849929840143077</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.4246479196216563</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.680873353901864</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.020194181311654</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.337757087605997</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.147491571528009</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>4.308745149890703</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.992442901290895</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.722402050039714</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.430205120279328</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>3.394449431257619</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6150334309063505</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>0.3412569310611677</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>0.6812032883746052</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.5013061334459238</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1.049834928262612</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,53</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>1,61</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,4</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,64</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,33%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-9,18%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>36,33%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>8,04%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>18,43%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>14,23%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 3,56</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-5,25; 3,2</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,37; 4,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-3,18; 3,31</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 6,06</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-2,88; 4,72</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 4,6</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-54,01; 146,6</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-63,06; 94,42</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-24,4; 144,17</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-45,68; 112,49</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-40,64; 122,6</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>-55,71; 198,27</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-59,58; 191,92</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.635339408443409</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.010910906654171</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>1.617895387310783</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.5000980809350193</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>0.6431476569221162</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.6970444459213798</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.8347784105881072</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1733252243122947</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.1754990148012699</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.3697287896801064</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.105653939938126</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.08041891396187364</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.1690097109426349</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.1870238258771218</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-4,06</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-5,97</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-57,93%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-12,94%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>41,4%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>38,58%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>-90,59%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.751480794265416</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.538586118098592</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-1.321148858292228</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.896833577905505</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.111841431804305</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-3.012959130810378</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-4.207416612781635</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5400543170597715</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6363430693900466</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.2667309321816187</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>-0.4313644688940928</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.4063727796446815</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>-0.562814914372863</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.5873093987145247</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-18,27; 1,64</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-20,62; 6,02</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,74; 5,31</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,96; 4,45</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-12,79; -2,04</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-99,24; 101,48</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-85,73; 374,02</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-66,27; 559,39</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-67,91; 504,5</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; -8,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>3.564212349183436</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.369958243149259</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>4.511447224011531</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.371490787954759</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>6.055999625011198</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>4.715506750368169</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>4.794537591281731</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.465955593824578</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.7001510601537019</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.476591250117496</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.138318950268421</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>1.225954822358697</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>1.919571836944538</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>2.051742129338546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-0,5</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,3</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>10,13%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>21,69%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11,91%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-10,19%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>13,66%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>-6,78%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-4.06340873475888</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.8977382374518256</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>1.391472728349406</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.329305305625407</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="n">
+        <v>-5.611070018572309</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5792845022806754</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.1189024504388262</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.4953360773867895</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.5724605918884486</v>
+      </c>
+      <c r="N10" s="6" t="inlineStr"/>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="n">
+        <v>-0.8917015033891108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-2,11; 2,31</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 2,95</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,85; 2,29</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 1,33</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,5; 3,57</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 2,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-2,84; 1,62</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-35,13; 79,47</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-32,26; 103,25</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-28,99; 60,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-48,36; 38,32</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-16,33; 51,52</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>-31,11; 53,52</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-45,76; 49,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-18.27105171049303</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-18.87000241130514</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.531543873396549</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.310870813087492</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="n">
+        <v>-12.0026644589131</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.9924036436914546</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8512170886040082</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.6492363595369499</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.6577688557278329</v>
+      </c>
+      <c r="N11" s="6" t="inlineStr"/>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.640708232965734</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.845136895595902</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.733937390917374</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>4.8401230142695</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="n">
+        <v>-1.79283303084796</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>1.014791518615572</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>3.497838350590414</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>6.09999109924461</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>5.814313191952077</v>
+      </c>
+      <c r="N12" s="6" t="inlineStr"/>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="n">
+        <v>0.02005856662479917</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.4265456632287244</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.7437218891071122</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.8057323272883068</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.3651880780013224</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.102608470084719</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.1570919294194333</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>-0.2030551530170795</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1012936009953029</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.1711043643691619</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.175737458868883</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>-0.07716046651304104</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1366416829047755</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.03224219818777065</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>-0.04575342277895104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.105537542177395</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.862897774302322</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-1.290289232109485</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.170851574530034</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.499317660055326</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-1.796303550333322</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-2.782343642703482</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3513134227590244</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3257500648538044</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.2210700196531737</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>-0.4682081374607884</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1633170870971334</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>-0.3098247397927972</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.4538903482299832</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.311006649219673</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.690125090980914</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>2.442779961478621</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>1.311507879553123</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.571657392783497</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>2.12428332645806</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.681946961456509</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7947256521077789</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.9344328315845236</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7002383716044893</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.3693987799531968</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.5151703606020548</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.5520326091273867</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5224553299402809</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
